--- a/CN/9_后记.xlsx
+++ b/CN/9_后记.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1EF480-E4EB-489B-8F0B-83ED58D40C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>（暂未询问她本人的意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,13 +215,17 @@
   </si>
   <si>
     <t>后记内容以日文あとがき那一版为主（其实大差不差）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日文那边写的比较详细一点，懒得翻译回中文了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,10 +323,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -346,21 +351,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>748749</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>33895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>207063</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -390,7 +395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,6 +470,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -500,6 +522,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,304 +714,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="10.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="3" customWidth="1"/>
     <col min="11" max="12" width="9" style="3"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" s="3" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E8" s="3" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E9" s="3" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E10" s="3" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="3" t="s">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="3" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="3" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="3" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="3" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="3" t="s">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="3" t="s">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="3" t="s">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="3" t="s">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D46" s="3" t="s">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C49" s="3" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C62" s="3" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H63" s="3" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C64" s="3" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C67" s="3" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="3" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C80" s="3" t="s">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H81" s="3" t="s">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="3" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1"/>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
